--- a/KRSCRM/权限操作接口.xlsx
+++ b/KRSCRM/权限操作接口.xlsx
@@ -1384,9 +1384,9 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="13.5"/>
@@ -2024,23 +2024,24 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:7" s="20" customFormat="1">
+      <c r="A35" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1"/>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
